--- a/src/main/resources/excels/ProductCollection.xlsx
+++ b/src/main/resources/excels/ProductCollection.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="175">
   <si>
     <t>Title</t>
   </si>
@@ -636,12 +636,16 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1115,9 +1119,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="44.5546875" customWidth="1"/>
-    <col min="3" max="3" width="78.109375" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="44.5546875"/>
+    <col min="3" max="3" customWidth="true" width="78.109375"/>
+    <col min="4" max="4" customWidth="true" width="42.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" thickBot="1">
@@ -1482,6 +1486,9 @@
         <v>77</v>
       </c>
       <c r="E23" s="4"/>
+      <c r="F23" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A24" s="6" t="s">
@@ -1497,6 +1504,9 @@
         <v>81</v>
       </c>
       <c r="E24" s="4"/>
+      <c r="F24" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A25" s="6" t="s">
@@ -1512,7 +1522,9 @@
         <v>85</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A26" s="6" t="s">
@@ -1528,7 +1540,9 @@
         <v>85</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A27" s="6" t="s">
@@ -1544,7 +1558,9 @@
         <v>85</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="53.4" thickBot="1">
       <c r="A28" s="6" t="s">
@@ -1560,7 +1576,9 @@
         <v>85</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="53.4" thickBot="1">
       <c r="A29" s="6" t="s">
@@ -1576,7 +1594,9 @@
         <v>85</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="53.4" thickBot="1">
       <c r="A30" s="6" t="s">
@@ -1592,7 +1612,9 @@
         <v>85</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="53.4" thickBot="1">
       <c r="A31" s="6" t="s">
@@ -1608,7 +1630,9 @@
         <v>85</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="53.4" thickBot="1">
       <c r="A32" s="6" t="s">
@@ -1624,7 +1648,9 @@
         <v>85</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" t="s" s="0">
+        <v>174</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="53.4" thickBot="1">
       <c r="A33" s="6" t="s">
@@ -1640,7 +1666,9 @@
         <v>85</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="F33" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A34" s="6" t="s">
@@ -1656,7 +1684,9 @@
         <v>85</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A35" s="6" t="s">
@@ -1672,7 +1702,9 @@
         <v>85</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A36" s="7" t="s">
@@ -1688,7 +1720,9 @@
         <v>119</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="53.4" thickBot="1">
       <c r="A37" s="7" t="s">
@@ -1704,7 +1738,9 @@
         <v>123</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A38" s="7" t="s">
@@ -1720,7 +1756,9 @@
         <v>119</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" t="s" s="0">
+        <v>174</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="53.4" thickBot="1">
       <c r="A39" s="7" t="s">
@@ -1736,7 +1774,9 @@
         <v>123</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="F39" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A40" s="7" t="s">
@@ -1752,7 +1792,9 @@
         <v>119</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="F40" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="53.4" thickBot="1">
       <c r="A41" s="7" t="s">
@@ -1768,7 +1810,9 @@
         <v>123</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="F41" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A42" s="7" t="s">
@@ -1784,7 +1828,9 @@
         <v>119</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="F42" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="53.4" thickBot="1">
       <c r="A43" s="7" t="s">
@@ -1800,7 +1846,9 @@
         <v>123</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="F43" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="53.4" thickBot="1">
       <c r="A44" s="7" t="s">
@@ -1816,7 +1864,7 @@
         <v>123</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>173</v>
       </c>
     </row>
@@ -1834,7 +1882,9 @@
         <v>123</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="53.4" thickBot="1">
       <c r="A46" s="7" t="s">
@@ -1850,7 +1900,9 @@
         <v>123</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="F46" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="53.4" thickBot="1">
       <c r="A47" s="7" t="s">
@@ -1866,7 +1918,9 @@
         <v>123</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="F47" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="53.4" thickBot="1">
       <c r="A48" s="7" t="s">
@@ -1882,7 +1936,9 @@
         <v>123</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="F48" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="53.4" thickBot="1">
       <c r="A49" s="7" t="s">
@@ -1898,7 +1954,9 @@
         <v>123</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="F49" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="53.4" thickBot="1">
       <c r="A50" s="7" t="s">
@@ -1914,7 +1972,9 @@
         <v>123</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="F50" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="53.4" thickBot="1">
       <c r="A51" s="7" t="s">
@@ -1930,7 +1990,9 @@
         <v>123</v>
       </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="F51" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="53.4" thickBot="1">
       <c r="A52" s="7" t="s">
@@ -1946,7 +2008,9 @@
         <v>123</v>
       </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="F52" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="53.4" thickBot="1">
       <c r="A53" s="7" t="s">
@@ -1962,7 +2026,9 @@
         <v>123</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="F53" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="53.4" thickBot="1">
       <c r="A54" s="7" t="s">
@@ -1978,7 +2044,9 @@
         <v>123</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="F54" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="53.4" thickBot="1">
       <c r="A55" s="7" t="s">
@@ -1994,7 +2062,9 @@
         <v>123</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="F55" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A56" s="7" t="s">
@@ -2010,7 +2080,9 @@
         <v>44</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="F56" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A57" s="7" t="s">
@@ -2026,7 +2098,9 @@
         <v>168</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="F57" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A58" s="7" t="s">
@@ -2042,7 +2116,9 @@
         <v>172</v>
       </c>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="F58" t="s" s="0">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/excels/ProductCollection.xlsx
+++ b/src/main/resources/excels/ProductCollection.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="175">
   <si>
     <t>Title</t>
   </si>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.200000000000003" thickBot="1">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="40.200000000000003" thickBot="1">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="53.4" thickBot="1">

--- a/src/main/resources/excels/ProductCollection.xlsx
+++ b/src/main/resources/excels/ProductCollection.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="175">
   <si>
     <t>Title</t>
   </si>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="53.4" thickBot="1">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.200000000000003" thickBot="1">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="53.4" thickBot="1">

--- a/src/main/resources/excels/ProductCollection.xlsx
+++ b/src/main/resources/excels/ProductCollection.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="175">
   <si>
     <t>Title</t>
   </si>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="40.200000000000003" thickBot="1">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E52" s="4"/>
       <c r="F52" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="53.4" thickBot="1">
